--- a/notes/Keller_TDF_samples/Metagenome.environmental.1.0.xlsx
+++ b/notes/Keller_TDF_samples/Metagenome.environmental.1.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="331" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Metagenome.environmental.1.0" sheetId="1" state="visible" r:id="rId2"/>
@@ -251,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="152">
   <si>
     <r>
       <t xml:space="preserve"># </t>
@@ -518,7 +518,7 @@
     </r>
   </si>
   <si>
-    <t># </t>
+    <t>#</t>
   </si>
   <si>
     <t>*sample_name</t>
@@ -569,10 +569,22 @@
     <t>description</t>
   </si>
   <si>
+    <t>visit</t>
+  </si>
+  <si>
+    <t>manuscript_id</t>
+  </si>
+  <si>
     <t>j60tr4</t>
   </si>
   <si>
+    <t>PRJNA302537</t>
+  </si>
+  <si>
     <t>human metagenome</t>
+  </si>
+  <si>
+    <t>Homo sapiens</t>
   </si>
   <si>
     <t>missing</t>
@@ -930,11 +942,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1009,6 +1020,21 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -1048,7 +1074,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1067,6 +1093,13 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -1096,12 +1129,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1133,7 +1162,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1209,1870 +1258,3439 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>610920</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>55440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27000" y="0"/>
+          <a:ext cx="15211440" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>610920</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>55440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27000" y="0"/>
+          <a:ext cx="15211440" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>610920</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>55440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27000" y="0"/>
+          <a:ext cx="15211440" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>610920</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>55440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27000" y="0"/>
+          <a:ext cx="15211440" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>610920</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>55440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27000" y="0"/>
+          <a:ext cx="15211440" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>610920</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>55440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27000" y="0"/>
+          <a:ext cx="15211440" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>610920</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>55440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27000" y="0"/>
+          <a:ext cx="15211440" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>610920</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>55440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27000" y="0"/>
+          <a:ext cx="15211440" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>610920</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>55440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27000" y="0"/>
+          <a:ext cx="15211440" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>610920</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>55440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27000" y="0"/>
+          <a:ext cx="15211440" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>610920</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>55440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27000" y="0"/>
+          <a:ext cx="15211440" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>610920</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>55440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27000" y="0"/>
+          <a:ext cx="15211440" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>610920</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>55440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27000" y="0"/>
+          <a:ext cx="15211440" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>610920</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>55440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27000" y="0"/>
+          <a:ext cx="15211440" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>610920</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>55440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27000" y="0"/>
+          <a:ext cx="15211440" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>610920</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>55440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27000" y="0"/>
+          <a:ext cx="15211440" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P100"/>
+  <dimension ref="A1:R100"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I98" activeCellId="0" sqref="I98:I100"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15:C100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2267206477733"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.7125506072875"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.2874493927126"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.71255060728745"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.7125506072875"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="17.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.7125506072875"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="11.7125506072874"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.7085020242915"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="8.83400809716599"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.66396761133603"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.5060728744939"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.83400809716599"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+    <row r="4" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+    <row r="12" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+    <row r="13" s="1" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P14" s="6" t="s">
         <v>28</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="O15" s="9"/>
+      <c r="Q15" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="O16" s="9"/>
+      <c r="Q16" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="O17" s="9"/>
+      <c r="Q17" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="O18" s="9"/>
+      <c r="Q18" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="O19" s="9"/>
+      <c r="Q19" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="O20" s="9"/>
+      <c r="Q20" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="O21" s="9"/>
+      <c r="Q21" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="O22" s="9"/>
+      <c r="Q22" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="O23" s="9"/>
+      <c r="Q23" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="O24" s="9"/>
+      <c r="Q24" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="O25" s="9"/>
+      <c r="Q25" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="O26" s="9"/>
+      <c r="Q26" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O27" s="9" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="O27" s="9"/>
+      <c r="Q27" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O28" s="9" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="O28" s="9"/>
+      <c r="Q28" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R28" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O29" s="9" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="O29" s="9"/>
+      <c r="Q29" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R29" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O30" s="9" t="s">
-        <v>54</v>
+        <v>37</v>
+      </c>
+      <c r="O30" s="9"/>
+      <c r="Q30" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O31" s="9" t="s">
-        <v>54</v>
+        <v>37</v>
+      </c>
+      <c r="O31" s="9"/>
+      <c r="Q31" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R31" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O32" s="9" t="s">
-        <v>54</v>
+        <v>37</v>
+      </c>
+      <c r="O32" s="9"/>
+      <c r="Q32" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O33" s="9" t="s">
-        <v>58</v>
+        <v>37</v>
+      </c>
+      <c r="O33" s="9"/>
+      <c r="Q33" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" s="13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O34" s="9" t="s">
-        <v>58</v>
+        <v>37</v>
+      </c>
+      <c r="O34" s="9"/>
+      <c r="Q34" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R34" s="13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O35" s="9" t="s">
-        <v>58</v>
+        <v>37</v>
+      </c>
+      <c r="O35" s="9"/>
+      <c r="Q35" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R35" s="13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O36" s="9" t="s">
-        <v>62</v>
+        <v>37</v>
+      </c>
+      <c r="O36" s="9"/>
+      <c r="Q36" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O37" s="9" t="s">
-        <v>62</v>
+        <v>37</v>
+      </c>
+      <c r="O37" s="9"/>
+      <c r="Q37" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R37" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O38" s="9" t="s">
-        <v>62</v>
+        <v>37</v>
+      </c>
+      <c r="O38" s="9"/>
+      <c r="Q38" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R38" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O39" s="9" t="s">
-        <v>66</v>
+        <v>37</v>
+      </c>
+      <c r="O39" s="9"/>
+      <c r="Q39" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O40" s="9" t="s">
-        <v>66</v>
+        <v>37</v>
+      </c>
+      <c r="O40" s="9"/>
+      <c r="Q40" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R40" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O41" s="9" t="s">
-        <v>66</v>
+        <v>37</v>
+      </c>
+      <c r="O41" s="9"/>
+      <c r="Q41" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R41" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O42" s="9" t="s">
-        <v>70</v>
+        <v>37</v>
+      </c>
+      <c r="O42" s="9"/>
+      <c r="Q42" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O43" s="9" t="s">
-        <v>70</v>
+        <v>37</v>
+      </c>
+      <c r="O43" s="9"/>
+      <c r="Q43" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R43" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O44" s="9" t="s">
-        <v>70</v>
+        <v>37</v>
+      </c>
+      <c r="O44" s="9"/>
+      <c r="Q44" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R44" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O45" s="9" t="s">
-        <v>74</v>
+        <v>37</v>
+      </c>
+      <c r="O45" s="9"/>
+      <c r="Q45" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O46" s="9" t="s">
-        <v>74</v>
+        <v>37</v>
+      </c>
+      <c r="O46" s="9"/>
+      <c r="Q46" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R46" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>76</v>
+        <v>80</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O47" s="9" t="s">
-        <v>74</v>
+        <v>37</v>
+      </c>
+      <c r="O47" s="9"/>
+      <c r="Q47" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R47" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O48" s="9" t="s">
-        <v>78</v>
+        <v>37</v>
+      </c>
+      <c r="O48" s="9"/>
+      <c r="Q48" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" s="13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O49" s="9" t="s">
-        <v>78</v>
+        <v>37</v>
+      </c>
+      <c r="O49" s="9"/>
+      <c r="Q49" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R49" s="13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O50" s="9" t="s">
-        <v>78</v>
+        <v>37</v>
+      </c>
+      <c r="O50" s="9"/>
+      <c r="Q50" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R50" s="13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O51" s="9" t="s">
-        <v>82</v>
+        <v>37</v>
+      </c>
+      <c r="O51" s="9"/>
+      <c r="Q51" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O52" s="9" t="s">
-        <v>82</v>
+        <v>37</v>
+      </c>
+      <c r="O52" s="9"/>
+      <c r="Q52" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R52" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O53" s="9" t="s">
-        <v>82</v>
+        <v>37</v>
+      </c>
+      <c r="O53" s="9"/>
+      <c r="Q53" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R53" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O54" s="9" t="s">
-        <v>86</v>
+        <v>37</v>
+      </c>
+      <c r="O54" s="9"/>
+      <c r="Q54" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O55" s="9" t="s">
-        <v>86</v>
+        <v>37</v>
+      </c>
+      <c r="O55" s="9"/>
+      <c r="Q55" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R55" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
-        <v>88</v>
+        <v>92</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O56" s="9" t="s">
-        <v>86</v>
+        <v>37</v>
+      </c>
+      <c r="O56" s="9"/>
+      <c r="Q56" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R56" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O57" s="9" t="s">
-        <v>90</v>
+        <v>37</v>
+      </c>
+      <c r="O57" s="9"/>
+      <c r="Q57" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" s="13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O58" s="9" t="s">
-        <v>90</v>
+        <v>37</v>
+      </c>
+      <c r="O58" s="9"/>
+      <c r="Q58" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R58" s="13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O59" s="9" t="s">
-        <v>90</v>
+        <v>37</v>
+      </c>
+      <c r="O59" s="9"/>
+      <c r="Q59" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R59" s="13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="s">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O60" s="9" t="s">
-        <v>94</v>
+        <v>37</v>
+      </c>
+      <c r="O60" s="9"/>
+      <c r="Q60" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" s="13" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="B61" s="10"/>
+      <c r="C61" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O61" s="9" t="s">
-        <v>94</v>
+        <v>37</v>
+      </c>
+      <c r="O61" s="9"/>
+      <c r="Q61" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R61" s="13" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O62" s="9" t="s">
-        <v>94</v>
+        <v>37</v>
+      </c>
+      <c r="O62" s="9"/>
+      <c r="Q62" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R62" s="13" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O63" s="9" t="s">
-        <v>98</v>
+        <v>37</v>
+      </c>
+      <c r="O63" s="9"/>
+      <c r="Q63" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" s="13" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
-        <v>99</v>
+        <v>103</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O64" s="9" t="s">
-        <v>98</v>
+        <v>37</v>
+      </c>
+      <c r="O64" s="9"/>
+      <c r="Q64" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R64" s="13" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O65" s="9" t="s">
-        <v>98</v>
+        <v>37</v>
+      </c>
+      <c r="O65" s="9"/>
+      <c r="Q65" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R65" s="13" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O66" s="9" t="s">
-        <v>102</v>
+        <v>37</v>
+      </c>
+      <c r="O66" s="9"/>
+      <c r="Q66" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="C67" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O67" s="9" t="s">
-        <v>102</v>
+        <v>37</v>
+      </c>
+      <c r="O67" s="9"/>
+      <c r="Q67" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R67" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
-        <v>104</v>
+        <v>108</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O68" s="9" t="s">
-        <v>102</v>
+        <v>37</v>
+      </c>
+      <c r="O68" s="9"/>
+      <c r="Q68" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R68" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+      <c r="B69" s="10"/>
+      <c r="C69" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O69" s="9" t="s">
-        <v>106</v>
+        <v>37</v>
+      </c>
+      <c r="O69" s="9"/>
+      <c r="Q69" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O70" s="9" t="s">
-        <v>106</v>
+        <v>37</v>
+      </c>
+      <c r="O70" s="9"/>
+      <c r="Q70" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R70" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
+      </c>
+      <c r="B71" s="10"/>
+      <c r="C71" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O71" s="9" t="s">
-        <v>106</v>
+        <v>37</v>
+      </c>
+      <c r="O71" s="9"/>
+      <c r="Q71" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R71" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O72" s="9" t="s">
-        <v>110</v>
+        <v>37</v>
+      </c>
+      <c r="O72" s="9"/>
+      <c r="Q72" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" s="13" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O73" s="9" t="s">
-        <v>110</v>
+        <v>37</v>
+      </c>
+      <c r="O73" s="9"/>
+      <c r="Q73" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R73" s="13" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
-        <v>112</v>
+        <v>116</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O74" s="9" t="s">
-        <v>110</v>
+        <v>37</v>
+      </c>
+      <c r="O74" s="9"/>
+      <c r="Q74" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R74" s="13" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
+      </c>
+      <c r="B75" s="10"/>
+      <c r="C75" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O75" s="9" t="s">
-        <v>114</v>
+        <v>37</v>
+      </c>
+      <c r="O75" s="9"/>
+      <c r="Q75" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" s="13" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="9" t="s">
-        <v>115</v>
+        <v>119</v>
+      </c>
+      <c r="B76" s="10"/>
+      <c r="C76" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O76" s="9" t="s">
-        <v>114</v>
+        <v>37</v>
+      </c>
+      <c r="O76" s="9"/>
+      <c r="Q76" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R76" s="13" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
-        <v>116</v>
+        <v>120</v>
+      </c>
+      <c r="B77" s="10"/>
+      <c r="C77" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O77" s="9" t="s">
-        <v>114</v>
+        <v>37</v>
+      </c>
+      <c r="O77" s="9"/>
+      <c r="Q77" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R77" s="13" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="9" t="s">
-        <v>117</v>
+        <v>121</v>
+      </c>
+      <c r="B78" s="10"/>
+      <c r="C78" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O78" s="9" t="s">
-        <v>118</v>
+        <v>37</v>
+      </c>
+      <c r="O78" s="9"/>
+      <c r="Q78" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" s="13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="B79" s="10"/>
+      <c r="C79" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O79" s="9" t="s">
-        <v>118</v>
+        <v>37</v>
+      </c>
+      <c r="O79" s="9"/>
+      <c r="Q79" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R79" s="13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
+      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O80" s="9" t="s">
-        <v>118</v>
+        <v>37</v>
+      </c>
+      <c r="O80" s="9"/>
+      <c r="Q80" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R80" s="13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
+      </c>
+      <c r="B81" s="10"/>
+      <c r="C81" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O81" s="9" t="s">
-        <v>122</v>
+        <v>37</v>
+      </c>
+      <c r="O81" s="9"/>
+      <c r="Q81" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" s="13" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O82" s="9" t="s">
-        <v>122</v>
+        <v>37</v>
+      </c>
+      <c r="O82" s="9"/>
+      <c r="Q82" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R82" s="13" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="9" t="s">
-        <v>124</v>
+        <v>128</v>
+      </c>
+      <c r="B83" s="10"/>
+      <c r="C83" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O83" s="9" t="s">
-        <v>122</v>
+        <v>37</v>
+      </c>
+      <c r="O83" s="9"/>
+      <c r="Q83" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R83" s="13" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="9" t="s">
-        <v>125</v>
+        <v>129</v>
+      </c>
+      <c r="B84" s="10"/>
+      <c r="C84" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O84" s="9" t="s">
-        <v>126</v>
+        <v>37</v>
+      </c>
+      <c r="O84" s="9"/>
+      <c r="Q84" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" s="13" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="9" t="s">
-        <v>127</v>
+        <v>131</v>
+      </c>
+      <c r="B85" s="10"/>
+      <c r="C85" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O85" s="9" t="s">
-        <v>126</v>
+        <v>37</v>
+      </c>
+      <c r="O85" s="9"/>
+      <c r="Q85" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R85" s="13" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="9" t="s">
-        <v>128</v>
+        <v>132</v>
+      </c>
+      <c r="B86" s="10"/>
+      <c r="C86" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O86" s="9" t="s">
-        <v>126</v>
+        <v>37</v>
+      </c>
+      <c r="O86" s="9"/>
+      <c r="Q86" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R86" s="13" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="s">
-        <v>129</v>
+        <v>133</v>
+      </c>
+      <c r="B87" s="10"/>
+      <c r="C87" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O87" s="9" t="s">
-        <v>130</v>
+        <v>37</v>
+      </c>
+      <c r="O87" s="9"/>
+      <c r="Q87" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R87" s="13" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="s">
-        <v>131</v>
+        <v>135</v>
+      </c>
+      <c r="B88" s="10"/>
+      <c r="C88" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O88" s="9" t="s">
-        <v>130</v>
+        <v>37</v>
+      </c>
+      <c r="O88" s="9"/>
+      <c r="Q88" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R88" s="13" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
+      </c>
+      <c r="B89" s="10"/>
+      <c r="C89" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O89" s="9" t="s">
-        <v>130</v>
+        <v>37</v>
+      </c>
+      <c r="O89" s="9"/>
+      <c r="Q89" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R89" s="13" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="s">
-        <v>133</v>
+        <v>137</v>
+      </c>
+      <c r="B90" s="10"/>
+      <c r="C90" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O90" s="9" t="s">
-        <v>134</v>
+        <v>37</v>
+      </c>
+      <c r="O90" s="9"/>
+      <c r="Q90" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" s="13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="s">
-        <v>135</v>
+        <v>139</v>
+      </c>
+      <c r="B91" s="10"/>
+      <c r="C91" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O91" s="9" t="s">
-        <v>134</v>
+        <v>37</v>
+      </c>
+      <c r="O91" s="9"/>
+      <c r="Q91" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R91" s="13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="9" t="s">
-        <v>136</v>
+        <v>140</v>
+      </c>
+      <c r="B92" s="10"/>
+      <c r="C92" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O92" s="9" t="s">
-        <v>134</v>
+        <v>37</v>
+      </c>
+      <c r="O92" s="9"/>
+      <c r="Q92" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R92" s="13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="s">
-        <v>137</v>
+        <v>141</v>
+      </c>
+      <c r="B93" s="10"/>
+      <c r="C93" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O93" s="9" t="s">
-        <v>138</v>
+        <v>37</v>
+      </c>
+      <c r="O93" s="9"/>
+      <c r="Q93" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R93" s="13" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="s">
-        <v>139</v>
+        <v>143</v>
+      </c>
+      <c r="B94" s="10"/>
+      <c r="C94" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O94" s="9" t="s">
-        <v>138</v>
+        <v>37</v>
+      </c>
+      <c r="O94" s="9"/>
+      <c r="Q94" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R94" s="13" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="s">
-        <v>140</v>
+        <v>144</v>
+      </c>
+      <c r="B95" s="10"/>
+      <c r="C95" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O95" s="9" t="s">
-        <v>138</v>
+        <v>37</v>
+      </c>
+      <c r="O95" s="9"/>
+      <c r="Q95" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R95" s="13" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="9" t="s">
-        <v>141</v>
+        <v>145</v>
+      </c>
+      <c r="B96" s="10"/>
+      <c r="C96" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O96" s="9" t="s">
-        <v>142</v>
+        <v>37</v>
+      </c>
+      <c r="O96" s="9"/>
+      <c r="Q96" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R96" s="13" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="9" t="s">
-        <v>143</v>
+        <v>147</v>
+      </c>
+      <c r="B97" s="10"/>
+      <c r="C97" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O97" s="9" t="s">
-        <v>142</v>
+        <v>37</v>
+      </c>
+      <c r="O97" s="9"/>
+      <c r="Q97" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R97" s="13" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="9" t="s">
-        <v>144</v>
+        <v>148</v>
+      </c>
+      <c r="B98" s="10"/>
+      <c r="C98" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O98" s="9" t="s">
-        <v>145</v>
+        <v>37</v>
+      </c>
+      <c r="O98" s="9"/>
+      <c r="Q98" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R98" s="13" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="9" t="s">
-        <v>146</v>
+        <v>150</v>
+      </c>
+      <c r="B99" s="10"/>
+      <c r="C99" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O99" s="9" t="s">
-        <v>145</v>
+        <v>37</v>
+      </c>
+      <c r="O99" s="9"/>
+      <c r="Q99" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R99" s="13" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="9" t="s">
-        <v>147</v>
+        <v>151</v>
+      </c>
+      <c r="B100" s="10"/>
+      <c r="C100" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O100" s="9" t="s">
-        <v>145</v>
+        <v>37</v>
+      </c>
+      <c r="O100" s="9"/>
+      <c r="Q100" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R100" s="13" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3089,6 +4707,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>